--- a/tarea 01/antdip_AE2023A.xlsx
+++ b/tarea 01/antdip_AE2023A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pulux/Desktop/Astronomía Experimental/2021-01/Tarea1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Astro Exp\tarea-01-astro-exp\tarea 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F2D4E-4AAE-7B4C-BFBA-1AF039AEEF61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD747CA-7A9A-4DDF-8A7E-F79453877557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -122,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,20 +420,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.5"/>
-    <col min="9" max="9" width="9.1640625"/>
-    <col min="10" max="10" width="11.5"/>
-    <col min="11" max="11" width="11.33203125"/>
-    <col min="12" max="1025" width="11.5"/>
+    <col min="1" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +464,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,6 +494,10 @@
         <f t="shared" ref="H2:H11" si="3">LN(G2)</f>
         <v>-11.819598547136639</v>
       </c>
+      <c r="I2">
+        <f>1/_xlfn.SEC(B2)</f>
+        <v>-6.1905293994420546E-2</v>
+      </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -500,7 +506,7 @@
         <v>0.25735007861833525</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A11" si="4">A2+1</f>
         <v>2</v>
@@ -531,8 +537,12 @@
         <f t="shared" si="3"/>
         <v>-12.187195735490285</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="6">1/_xlfn.SEC(B3)</f>
+        <v>-0.62782803524638597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -563,8 +573,12 @@
         <f t="shared" si="3"/>
         <v>-12.532912037985463</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>0.96279647964467563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -595,8 +609,12 @@
         <f t="shared" si="3"/>
         <v>-12.841964898177388</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>-0.49303456607580859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -627,8 +645,12 @@
         <f t="shared" si="3"/>
         <v>-13.101124573780389</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>-0.83931303439148364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -659,8 +681,12 @@
         <f t="shared" si="3"/>
         <v>-13.406792669034562</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.19276736904436362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -691,8 +717,12 @@
         <f t="shared" si="3"/>
         <v>-13.515731624289346</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.88846132901309138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -723,8 +753,12 @@
         <f t="shared" si="3"/>
         <v>-13.779416949652147</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0.97057589256814925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -755,8 +789,12 @@
         <f t="shared" si="3"/>
         <v>-14.038342579256076</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0.68718786183120062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -787,8 +825,12 @@
         <f t="shared" si="3"/>
         <v>-14.14255599966987</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.27405891954542744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -816,9 +858,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5"/>
+    <col min="1" max="1025" width="11.453125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -835,9 +877,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5"/>
+    <col min="1" max="1025" width="11.453125"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/tarea 01/antdip_AE2023A.xlsx
+++ b/tarea 01/antdip_AE2023A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Astro Exp\tarea-01-astro-exp\tarea 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD747CA-7A9A-4DDF-8A7E-F79453877557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650204AB-5D6F-4052-89A2-E9CC8F6ABC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="159" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Punto</t>
   </si>
@@ -43,9 +43,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>-SEC ('z')</t>
-  </si>
-  <si>
     <t>Psky</t>
   </si>
   <si>
@@ -59,6 +56,18 @@
   </si>
   <si>
     <t>Domo</t>
+  </si>
+  <si>
+    <t>-SECZ</t>
+  </si>
+  <si>
+    <t>1ensec</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>valor_tau</t>
   </si>
 </sst>
 </file>
@@ -420,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -446,23 +455,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -495,11 +510,11 @@
         <v>-11.819598547136639</v>
       </c>
       <c r="I2">
-        <f>1/_xlfn.SEC(B2)</f>
-        <v>-6.1905293994420546E-2</v>
+        <f>1/D2</f>
+        <v>-0.39874906892524625</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <f>SLOPE(H2:H11,D2:D11)</f>
@@ -538,8 +553,8 @@
         <v>-12.187195735490285</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="6">1/_xlfn.SEC(B3)</f>
-        <v>-0.62782803524638597</v>
+        <f t="shared" ref="I3:I11" si="6">1/D3</f>
+        <v>-0.28568836740497355</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -575,7 +590,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="6"/>
-        <v>0.96279647964467563</v>
+        <v>-0.22222922625139652</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -611,7 +626,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="6"/>
-        <v>-0.49303456607580859</v>
+        <v>-0.18189229368622709</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,7 +662,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="6"/>
-        <v>-0.83931303439148364</v>
+        <v>-0.15384816987279004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -683,7 +698,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="6"/>
-        <v>0.19276736904436362</v>
+        <v>-0.13329431603619238</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,7 +734,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>0.88846132901309138</v>
+        <v>-0.11771071880947644</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -755,7 +770,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>0.97057589256814925</v>
+        <v>-0.10522274500059638</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -791,7 +806,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>0.68718786183120062</v>
+        <v>-9.532455117500975E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -827,12 +842,12 @@
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
-        <v>0.27405891954542744</v>
+        <v>-8.6981872646357095E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>-44.54</v>
@@ -844,7 +859,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tarea 01/antdip_AE2023A.xlsx
+++ b/tarea 01/antdip_AE2023A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Astro Exp\tarea-01-astro-exp\tarea 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650204AB-5D6F-4052-89A2-E9CC8F6ABC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366605E1-C16F-437B-9E8A-41FD5287D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     <col min="12" max="1025" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +478,10 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +523,7 @@
         <v>0.25735007861833525</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A11" si="4">A2+1</f>
         <v>2</v>
@@ -557,7 +559,7 @@
         <v>-0.28568836740497355</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -593,7 +595,7 @@
         <v>-0.22222922625139652</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -629,7 +631,7 @@
         <v>-0.18189229368622709</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -665,7 +667,7 @@
         <v>-0.15384816987279004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -701,7 +703,7 @@
         <v>-0.13329431603619238</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -737,7 +739,7 @@
         <v>-0.11771071880947644</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -773,7 +775,7 @@
         <v>-0.10522274500059638</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -809,7 +811,7 @@
         <v>-9.532455117500975E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -845,7 +847,7 @@
         <v>-8.6981872646357095E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
